--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="35">
   <si>
     <t>Maruti 800</t>
   </si>
@@ -124,6 +124,24 @@
   </si>
   <si>
     <t>Honda Rebel 300</t>
+  </si>
+  <si>
+    <t>Expected Launch Date : 30 Mar 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Mar 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Apr 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Jun 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Unrevealed</t>
+  </si>
+  <si>
+    <t>Expected Launch : Nov 2024</t>
   </si>
 </sst>
 </file>
@@ -494,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s" s="0">
         <v>11</v>
@@ -502,57 +520,57 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +578,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>27</v>
@@ -571,7 +589,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>18</v>
